--- a/Pruebas distancia.xlsx
+++ b/Pruebas distancia.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evesan/Documents/ESIME9/Proyectos/Tesina/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="6"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="60" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="75" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="80" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="90" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="100" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="110" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="120" sheetId="7" r:id="rId9"/>
+    <sheet name="60" sheetId="1" r:id="rId1"/>
+    <sheet name="75" sheetId="2" r:id="rId2"/>
+    <sheet name="80" sheetId="3" r:id="rId3"/>
+    <sheet name="90" sheetId="4" r:id="rId4"/>
+    <sheet name="100" sheetId="5" r:id="rId5"/>
+    <sheet name="110" sheetId="6" r:id="rId6"/>
+    <sheet name="120" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,24 +50,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -60,37 +93,381 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mínima and Máxima</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'60'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'60'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'60'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'60'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'60'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'60'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1999696560"/>
+        <c:axId val="-1962314832"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="-1999696560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1962314832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1962314832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1999696560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -109,15 +486,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60'!$B$1</c:f>
+              <c:f>'75'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -126,20 +512,70 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'60'!$A$2:$A$8</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'75'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'60'!$B$2:$B$8</c:f>
+              <c:f>'75'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -148,7 +584,13 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'60'!$C$1</c:f>
+              <c:f>'75'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -157,28 +599,86 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'60'!$A$2:$A$8</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'75'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'60'!$C$2:$C$8</c:f>
+              <c:f>'75'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="340767460"/>
-        <c:axId val="2011127243"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1998036048"/>
+        <c:axId val="-1998032656"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="340767460"/>
+        <c:axId val="-1998036048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,6 +701,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -208,12 +712,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2011127243"/>
+        <c:crossAx val="-1998032656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2011127243"/>
+        <c:axId val="-1998032656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -229,6 +739,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -242,21 +754,36 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340767460"/>
+        <c:crossAx val="-1998036048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -275,15 +802,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'75'!$B$1</c:f>
+              <c:f>'80'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -292,20 +828,76 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'75'!$A$2:$A$8</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'80'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'75'!$B$2:$B$8</c:f>
+              <c:f>'80'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -314,7 +906,13 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'75'!$C$1</c:f>
+              <c:f>'80'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -323,28 +921,92 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'75'!$A$2:$A$8</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'80'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'75'!$C$2:$C$8</c:f>
+              <c:f>'80'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="378503130"/>
-        <c:axId val="910064329"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1962270160"/>
+        <c:axId val="-1962266128"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="378503130"/>
+        <c:axId val="-1962270160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,6 +1029,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -374,12 +1040,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910064329"/>
+        <c:crossAx val="-1962266128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="910064329"/>
+        <c:axId val="-1962266128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,6 +1067,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -408,21 +1082,36 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378503130"/>
+        <c:crossAx val="-1962270160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -434,22 +1123,33 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Mínima and Máxima</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'80'!$B$1</c:f>
+              <c:f>'90'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -458,20 +1158,76 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'80'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'90'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'80'!$B$2:$B$9</c:f>
+              <c:f>'90'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -480,7 +1236,13 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'80'!$C$1</c:f>
+              <c:f>'90'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -489,28 +1251,92 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'80'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'90'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'80'!$C$2:$C$9</c:f>
+              <c:f>'90'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="381839032"/>
-        <c:axId val="1809826882"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1962235440"/>
+        <c:axId val="-1962231408"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="381839032"/>
+        <c:axId val="-1962235440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,13 +1352,19 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Grados</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -540,12 +1372,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809826882"/>
+        <c:crossAx val="-1962231408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809826882"/>
+        <c:axId val="-1962231408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,6 +1399,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -574,21 +1414,37 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381839032"/>
+        <c:crossAx val="-1962235440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -600,22 +1456,33 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Mínima and Máxima</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'90'!$B$1</c:f>
+              <c:f>'100'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -624,20 +1491,76 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'90'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'90'!$B$2:$B$9</c:f>
+              <c:f>'100'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -646,7 +1569,13 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'90'!$C$1</c:f>
+              <c:f>'100'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -655,28 +1584,92 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'90'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'90'!$C$2:$C$9</c:f>
+              <c:f>'100'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2135263029"/>
-        <c:axId val="176486270"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1996786224"/>
+        <c:axId val="-1996782192"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2135263029"/>
+        <c:axId val="-1996786224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,13 +1685,19 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Grados</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -706,12 +1705,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176486270"/>
+        <c:crossAx val="-1996782192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176486270"/>
+        <c:axId val="-1996782192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,6 +1732,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -740,21 +1747,37 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135263029"/>
+        <c:crossAx val="-1996786224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -766,22 +1789,33 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Mínima and Máxima</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$B$1</c:f>
+              <c:f>'110'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -790,20 +1824,76 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'100'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$B$2:$B$9</c:f>
+              <c:f>'110'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -812,7 +1902,13 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$C$1</c:f>
+              <c:f>'110'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -821,28 +1917,92 @@
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>'100'!$A$2:$A$9</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$C$2:$C$9</c:f>
+              <c:f>'110'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="431658518"/>
-        <c:axId val="1139090127"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1996745408"/>
+        <c:axId val="-1996741376"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="431658518"/>
+        <c:axId val="-1996745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,13 +2018,19 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Grados</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -872,12 +2038,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1139090127"/>
+        <c:crossAx val="-1996741376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1139090127"/>
+        <c:axId val="-1996741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,6 +2065,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -906,21 +2080,37 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431658518"/>
+        <c:crossAx val="-1996745408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -932,31 +2122,31 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:t>Mínima and Máxima</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Mínima/- and Máxima/-</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'110'!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="3366CC">
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
@@ -964,30 +2154,86 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:f>'120'!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Grados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'110'!$B$2:$B$9</c:f>
+              <c:f>'120'!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'110'!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="DC3912">
                 <a:alpha val="30000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
@@ -995,20 +2241,89 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:f>'120'!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Grados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'110'!$C$2:$C$9</c:f>
+              <c:f>'120'!$C$1:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1181924482"/>
-        <c:axId val="446612764"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1962201392"/>
+        <c:axId val="-1962197360"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1181924482"/>
+        <c:axId val="-1962201392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,13 +2339,19 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Grados</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grados/26</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1038,12 +2359,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446612764"/>
+        <c:crossAx val="-1962197360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446612764"/>
+        <c:axId val="-1962197360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,6 +2386,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1072,177 +2401,33 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1181924482"/>
+        <c:crossAx val="-1962201392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:t>Mínima/- and Máxima/-</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'120'!$A$1:$A$9</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'120'!$B$1:$B$9</c:f>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng" w="25400">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'120'!$A$1:$A$9</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'120'!$C$1:$C$9</c:f>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1838924242"/>
-        <c:axId val="636941637"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="1838924242"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Grados/26</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="636941637"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="636941637"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1838924242"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1256,7 +2441,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1267,7 +2452,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1277,7 +2462,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1291,9 +2476,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1302,7 +2487,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1312,7 +2497,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1326,7 +2511,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1337,7 +2522,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1347,21 +2532,21 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1372,7 +2557,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1382,21 +2567,21 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1407,7 +2592,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1417,7 +2602,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1431,7 +2616,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1442,7 +2627,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1452,7 +2637,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1466,7 +2651,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
@@ -1477,7 +2662,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1486,14 +2671,276 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,96 +2951,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="C6" s="2">
-        <v>390.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="C7" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="C8" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,101 +3053,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,107 +3160,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>-9.0</v>
+        <v>-9</v>
       </c>
       <c r="B9" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="C9" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,107 +3275,111 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
-        <v>210.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="C7" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2">
-        <v>390.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>-9.0</v>
+        <v>-9</v>
       </c>
       <c r="B9" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="C9" s="2">
-        <v>360.0</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,110 +3390,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>-9.0</v>
+        <v>-9</v>
       </c>
       <c r="B9" s="2">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="C9" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,110 +3508,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>-9.0</v>
+        <v>-9</v>
       </c>
       <c r="B9" s="2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,9 +3626,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2170,89 +3637,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="2">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>-9.0</v>
+        <v>-9</v>
       </c>
       <c r="B9" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pruebas distancia.xlsx
+++ b/Pruebas distancia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="60" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="100" sheetId="5" r:id="rId5"/>
     <sheet name="110" sheetId="6" r:id="rId6"/>
     <sheet name="120" sheetId="7" r:id="rId7"/>
+    <sheet name="0" sheetId="8" r:id="rId8"/>
+    <sheet name="50" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="4">
   <si>
     <t>Grados</t>
   </si>
@@ -96,12 +98,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -120,15 +118,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1999696560"/>
-        <c:axId val="-1962314832"/>
+        <c:axId val="348676544"/>
+        <c:axId val="348681248"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1999696560"/>
+        <c:axId val="348676544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962314832"/>
+        <c:crossAx val="348681248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +400,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1962314832"/>
+        <c:axId val="348681248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999696560"/>
+        <c:crossAx val="348676544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -674,11 +668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1998036048"/>
-        <c:axId val="-1998032656"/>
+        <c:axId val="348710080"/>
+        <c:axId val="348713472"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1998036048"/>
+        <c:axId val="348710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1998032656"/>
+        <c:crossAx val="348713472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +717,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1998032656"/>
+        <c:axId val="348713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1998036048"/>
+        <c:crossAx val="348710080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1002,11 +996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1962270160"/>
-        <c:axId val="-1962266128"/>
+        <c:axId val="309607552"/>
+        <c:axId val="309610400"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1962270160"/>
+        <c:axId val="309607552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962266128"/>
+        <c:crossAx val="309610400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1045,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1962266128"/>
+        <c:axId val="309610400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962270160"/>
+        <c:crossAx val="309607552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1123,13 +1117,11 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Mínima and Máxima</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1332,11 +1324,1277 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1962235440"/>
-        <c:axId val="-1962231408"/>
+        <c:axId val="348727424"/>
+        <c:axId val="348731456"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1962235440"/>
+        <c:axId val="348727424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348731456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348731456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348727424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Mínima and Máxima</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'100'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348772784"/>
+        <c:axId val="348776816"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="348772784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348776816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348776816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348772784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Mínima and Máxima</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'110'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'110'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'110'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'110'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'110'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348810544"/>
+        <c:axId val="348814576"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="348810544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grados</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348814576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348814576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348810544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Mínima/- and Máxima/-</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'120'!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Grados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'120'!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'120'!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Grados</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'120'!$C$1:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="351553840"/>
+        <c:axId val="351557872"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="351553840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Grados/26</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351557872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351557872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351553840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mínima and Máxima</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366CC">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="DC3912">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="25400" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="351590528"/>
+        <c:axId val="351594560"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="351590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +2633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962231408"/>
+        <c:crossAx val="351594560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1383,7 +2641,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1962231408"/>
+        <c:axId val="351594560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +2675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962235440"/>
+        <c:crossAx val="351590528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1439,7 +2697,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1476,7 +2734,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$B$1</c:f>
+              <c:f>'50'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1499,10 +2757,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:f>'50'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -1520,45 +2778,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$B$2:$B$9</c:f>
+              <c:f>'50'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>120.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>90.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.0</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>330.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,7 +2815,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'100'!$C$1</c:f>
+              <c:f>'50'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1592,10 +2838,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'100'!$A$2:$A$9</c:f>
+              <c:f>'50'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>26.0</c:v>
                 </c:pt>
@@ -1613,27 +2859,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'100'!$C$2:$C$9</c:f>
+              <c:f>'50'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>180.0</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330.0</c:v>
+                  <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>360.0</c:v>
@@ -1645,12 +2885,6 @@
                   <c:v>360.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>360.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1665,11 +2899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1996786224"/>
-        <c:axId val="-1996782192"/>
+        <c:axId val="309105392"/>
+        <c:axId val="309108784"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1996786224"/>
+        <c:axId val="309105392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +2942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1996782192"/>
+        <c:crossAx val="309108784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1716,7 +2950,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1996782192"/>
+        <c:axId val="309108784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,661 +2984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1996786224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mínima and Máxima</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'110'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mínima</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'110'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'110'!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'110'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Máxima</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'110'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'110'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>360.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1996745408"/>
-        <c:axId val="-1996741376"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="-1996745408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Grados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1996741376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1996741376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1996745408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mínima/- and Máxima/-</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366CC">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'120'!$A$1:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Grados</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'120'!$B$1:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC3912">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="25400" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="DC3912"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'120'!$A$1:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Grados</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'120'!$C$1:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>360.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1962201392"/>
-        <c:axId val="-1962197360"/>
-      </c:areaChart>
-      <c:catAx>
-        <c:axId val="-1962201392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Grados/26</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1962197360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1962197360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1962201392"/>
+        <c:crossAx val="309105392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2443,7 +3023,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2478,7 +3058,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2537,18 +3117,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2572,18 +3152,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2618,7 +3198,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2653,7 +3233,77 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3258,9 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3373,9 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3491,9 +4137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3607,10 +4251,134 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>210</v>
+      </c>
+      <c r="C3" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>180</v>
+      </c>
+      <c r="C8" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>-9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>240</v>
+      </c>
+      <c r="C9" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f>MAX(A1:C10)</f>
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3630,11 +4398,11 @@
       <c r="A2" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3642,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2">
         <v>330</v>
@@ -3653,10 +4421,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,7 +4432,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2">
         <v>330</v>
@@ -3675,49 +4443,134 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2">
-        <v>330</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>-4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>180</v>
-      </c>
-      <c r="C8" s="2">
-        <v>330</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>-9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>240</v>
-      </c>
-      <c r="C9" s="2">
-        <v>360</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>180</v>
+      </c>
+      <c r="C5" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300</v>
+      </c>
+      <c r="C7" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pruebas distancia.xlsx
+++ b/Pruebas distancia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Grados (º)</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Distancia máxima</t>
   </si>
 </sst>
 </file>
@@ -368,11 +371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158768176"/>
-        <c:axId val="1116302112"/>
+        <c:axId val="827847616"/>
+        <c:axId val="828559376"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1158768176"/>
+        <c:axId val="827847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116302112"/>
+        <c:crossAx val="828559376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -419,7 +422,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116302112"/>
+        <c:axId val="828559376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158768176"/>
+        <c:crossAx val="827847616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -677,11 +680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158837104"/>
-        <c:axId val="1158841136"/>
+        <c:axId val="827860208"/>
+        <c:axId val="827863328"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1158837104"/>
+        <c:axId val="827860208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158841136"/>
+        <c:crossAx val="827863328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +731,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1158841136"/>
+        <c:axId val="827863328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158837104"/>
+        <c:crossAx val="827860208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -998,11 +1001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1116327744"/>
-        <c:axId val="1116331136"/>
+        <c:axId val="827898752"/>
+        <c:axId val="827902784"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1116327744"/>
+        <c:axId val="827898752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116331136"/>
+        <c:crossAx val="827902784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1052,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116331136"/>
+        <c:axId val="827902784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116327744"/>
+        <c:crossAx val="827898752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1319,11 +1322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1081647376"/>
-        <c:axId val="1081651408"/>
+        <c:axId val="828691504"/>
+        <c:axId val="828695536"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1081647376"/>
+        <c:axId val="828691504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081651408"/>
+        <c:crossAx val="828695536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1370,7 +1373,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1081651408"/>
+        <c:axId val="828695536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081647376"/>
+        <c:crossAx val="828691504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1652,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158939440"/>
-        <c:axId val="1158943472"/>
+        <c:axId val="827941824"/>
+        <c:axId val="827945856"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1158939440"/>
+        <c:axId val="827941824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158943472"/>
+        <c:crossAx val="827945856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,7 +1706,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1158943472"/>
+        <c:axId val="827945856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158939440"/>
+        <c:crossAx val="827941824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1985,11 +1988,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1116393904"/>
-        <c:axId val="1116397936"/>
+        <c:axId val="787752048"/>
+        <c:axId val="787727808"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1116393904"/>
+        <c:axId val="787752048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116397936"/>
+        <c:crossAx val="787727808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2036,7 +2039,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1116397936"/>
+        <c:axId val="787727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116393904"/>
+        <c:crossAx val="787752048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2318,11 +2321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1159029664"/>
-        <c:axId val="1159033696"/>
+        <c:axId val="828821232"/>
+        <c:axId val="828825264"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1159029664"/>
+        <c:axId val="828821232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159033696"/>
+        <c:crossAx val="828825264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2369,7 +2372,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159033696"/>
+        <c:axId val="828825264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159029664"/>
+        <c:crossAx val="828821232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,11 +2654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1159105888"/>
-        <c:axId val="1159109920"/>
+        <c:axId val="787619408"/>
+        <c:axId val="787599840"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1159105888"/>
+        <c:axId val="787619408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159109920"/>
+        <c:crossAx val="787599840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2702,7 +2705,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159109920"/>
+        <c:axId val="787599840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159105888"/>
+        <c:crossAx val="787619408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2976,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1159180608"/>
-        <c:axId val="1159184640"/>
+        <c:axId val="828939776"/>
+        <c:axId val="828943808"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1159180608"/>
+        <c:axId val="828939776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159184640"/>
+        <c:crossAx val="828943808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3027,7 +3030,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159184640"/>
+        <c:axId val="828943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159180608"/>
+        <c:crossAx val="828939776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3661,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3674,7 +3677,7 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -3717,8 +3720,11 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -3732,8 +3738,12 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3763,46 +3773,46 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6765,10 +6775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6778,7 +6788,7 @@
     <col min="4" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6792,7 +6802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -6807,7 +6817,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -6821,8 +6831,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -6836,8 +6849,12 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -6852,7 +6869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -6867,7 +6884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -6882,37 +6899,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9875,10 +9892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9888,7 +9905,7 @@
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9902,7 +9919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -9917,7 +9934,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -9931,8 +9948,11 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -9946,8 +9966,12 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -9962,7 +9986,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -9977,7 +10001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -9992,7 +10016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -10007,28 +10031,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12991,10 +13015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13003,7 +13027,7 @@
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13017,7 +13041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -13032,7 +13056,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -13046,8 +13070,11 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -13061,8 +13088,12 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -13077,7 +13108,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -13092,7 +13123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -13107,7 +13138,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -13122,31 +13153,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16109,10 +16140,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16122,7 +16153,7 @@
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16136,7 +16167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -16151,7 +16182,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -16165,8 +16196,11 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -16180,8 +16214,12 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -16196,7 +16234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -16211,7 +16249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -16226,7 +16264,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -16241,7 +16279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9</v>
       </c>
@@ -16256,25 +16294,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19237,10 +19275,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19250,7 +19288,7 @@
     <col min="4" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19264,7 +19302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -19279,7 +19317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -19293,8 +19331,11 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -19308,8 +19349,12 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -19324,7 +19369,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -19339,7 +19384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -19354,7 +19399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -19369,7 +19414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9</v>
       </c>
@@ -19384,25 +19429,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22365,10 +22410,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22378,7 +22423,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22392,7 +22437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -22407,7 +22452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -22421,8 +22466,11 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -22436,8 +22484,12 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -22452,7 +22504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -22467,7 +22519,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -22482,7 +22534,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -22497,7 +22549,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9</v>
       </c>
@@ -22512,26 +22564,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -25494,10 +25546,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25507,7 +25559,7 @@
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25521,7 +25573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -25536,7 +25588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -25550,8 +25602,11 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -25565,8 +25620,12 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -25581,7 +25640,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -25596,7 +25655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -25611,7 +25670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -25626,7 +25685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9</v>
       </c>
@@ -25641,28 +25700,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -28625,10 +28684,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28638,7 +28697,7 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28652,7 +28711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -28666,7 +28725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>21</v>
       </c>
@@ -28680,8 +28739,11 @@
         <f t="shared" ref="D3:D9" si="0">C3-B3</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -28695,8 +28757,12 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>MAX(D3:D9)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -28711,7 +28777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -28726,7 +28792,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -28741,7 +28807,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>-4</v>
       </c>
@@ -28756,7 +28822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>-9</v>
       </c>
@@ -28771,32 +28837,32 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>MAX(A1:C10)</f>
         <v>360</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
